--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushv\Developer\dm_arf\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E34AA12-7FEE-454E-8522-7B2600908F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025BBB91-B4D0-4DD0-AFB6-63F551A34904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23610" yWindow="1665" windowWidth="28800" windowHeight="15435" xr2:uid="{0740747E-C6CD-40A7-8B82-952AACDE0BF3}"/>
+    <workbookView xWindow="5310" yWindow="1125" windowWidth="28800" windowHeight="19605" xr2:uid="{0740747E-C6CD-40A7-8B82-952AACDE0BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
-  <si>
-    <t>MOA Findings</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
   <si>
     <t>GMSC</t>
   </si>
@@ -93,6 +90,15 @@
   </si>
   <si>
     <t>OOM</t>
+  </si>
+  <si>
+    <t>PIMA</t>
+  </si>
+  <si>
+    <t>WEATHER</t>
+  </si>
+  <si>
+    <t>My Findings</t>
   </si>
 </sst>
 </file>
@@ -138,10 +144,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,14 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E621C8-7248-4998-9499-5D9782F8CCF0}">
-  <dimension ref="F7:M49"/>
+  <dimension ref="F7:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
@@ -471,41 +478,41 @@
   </cols>
   <sheetData>
     <row r="7" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="G10" t="s">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>2</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>3</v>
-      </c>
-      <c r="M10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>89.13</v>
@@ -528,7 +535,7 @@
     </row>
     <row r="12" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>99.13</v>
@@ -551,7 +558,7 @@
     </row>
     <row r="13" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>77.92</v>
@@ -574,7 +581,7 @@
     </row>
     <row r="14" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>99.23</v>
@@ -597,7 +604,7 @@
     </row>
     <row r="15" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <v>99.67</v>
@@ -620,7 +627,7 @@
     </row>
     <row r="16" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>99.02</v>
@@ -642,31 +649,31 @@
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
-        <v>12</v>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>2</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>3</v>
       </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
       <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
         <v>2</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>3</v>
-      </c>
-      <c r="M19" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>94.86</v>
@@ -689,7 +696,7 @@
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>95.93</v>
@@ -712,7 +719,7 @@
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>68.09</v>
@@ -735,7 +742,7 @@
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23">
         <v>93.36</v>
@@ -758,7 +765,7 @@
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>87.36</v>
@@ -781,7 +788,7 @@
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>93.14</v>
@@ -803,31 +810,31 @@
       </c>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
-        <v>13</v>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
         <v>2</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>3</v>
       </c>
-      <c r="I27" t="s">
-        <v>4</v>
-      </c>
       <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
         <v>2</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>3</v>
-      </c>
-      <c r="M27" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>55.28</v>
@@ -850,7 +857,7 @@
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>65.33</v>
@@ -873,7 +880,7 @@
     </row>
     <row r="30" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30">
         <v>56.49</v>
@@ -896,7 +903,7 @@
     </row>
     <row r="31" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <v>59.44</v>
@@ -919,7 +926,7 @@
     </row>
     <row r="32" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <v>74</v>
@@ -942,7 +949,7 @@
     </row>
     <row r="33" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>67.41</v>
@@ -964,31 +971,31 @@
       </c>
     </row>
     <row r="35" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F35" s="2" t="s">
-        <v>14</v>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" t="s">
         <v>16</v>
       </c>
-      <c r="H35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" t="s">
-        <v>17</v>
-      </c>
       <c r="M35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>99.65</v>
@@ -1011,7 +1018,7 @@
     </row>
     <row r="37" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37">
         <v>99.3</v>
@@ -1034,7 +1041,7 @@
     </row>
     <row r="38" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>65.319999999999993</v>
@@ -1057,7 +1064,7 @@
     </row>
     <row r="39" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>98.38</v>
@@ -1080,7 +1087,7 @@
     </row>
     <row r="40" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40">
         <v>94.81</v>
@@ -1103,7 +1110,7 @@
     </row>
     <row r="41" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41">
         <v>96.88</v>
@@ -1125,31 +1132,31 @@
       </c>
     </row>
     <row r="43" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F43" s="2" t="s">
-        <v>15</v>
+      <c r="F43" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
         <v>2</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>3</v>
       </c>
-      <c r="I43" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
         <v>2</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>3</v>
-      </c>
-      <c r="M43" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="44" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <v>78.900000000000006</v>
@@ -1172,13 +1179,13 @@
     </row>
     <row r="45" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K45">
         <v>80.28</v>
@@ -1192,7 +1199,7 @@
     </row>
     <row r="46" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46">
         <v>71.38</v>
@@ -1215,7 +1222,7 @@
     </row>
     <row r="47" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47">
         <v>80.34</v>
@@ -1238,7 +1245,7 @@
     </row>
     <row r="48" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48">
         <v>80.63</v>
@@ -1261,7 +1268,7 @@
     </row>
     <row r="49" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49">
         <v>80.05</v>
@@ -1280,6 +1287,274 @@
       </c>
       <c r="M49">
         <v>46.65</v>
+      </c>
+    </row>
+    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="H52">
+        <v>61.94</v>
+      </c>
+      <c r="I52">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K52">
+        <v>81</v>
+      </c>
+      <c r="L52">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="M52">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <v>87.2</v>
+      </c>
+      <c r="H53">
+        <v>49.25</v>
+      </c>
+      <c r="I53">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K53">
+        <v>87.6</v>
+      </c>
+      <c r="L53">
+        <v>54.48</v>
+      </c>
+      <c r="M53">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>87</v>
+      </c>
+      <c r="H54">
+        <v>36.56</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>87</v>
+      </c>
+      <c r="L54">
+        <v>36.57</v>
+      </c>
+      <c r="M54">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>83.6</v>
+      </c>
+      <c r="H55">
+        <v>53.73</v>
+      </c>
+      <c r="I55">
+        <v>0.03</v>
+      </c>
+      <c r="K55">
+        <v>83.6</v>
+      </c>
+      <c r="L55">
+        <v>53.73</v>
+      </c>
+      <c r="M55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>78.2</v>
+      </c>
+      <c r="H56">
+        <v>59.32</v>
+      </c>
+      <c r="I56">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K56">
+        <v>78.2</v>
+      </c>
+      <c r="L56">
+        <v>59.33</v>
+      </c>
+      <c r="M56">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>94.8</v>
+      </c>
+      <c r="H57">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>94.8</v>
+      </c>
+      <c r="L57">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="M57">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>2</v>
+      </c>
+      <c r="M59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>56.46</v>
+      </c>
+      <c r="H60">
+        <v>85.46</v>
+      </c>
+      <c r="I60">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>81.540000000000006</v>
+      </c>
+      <c r="H61">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I61">
+        <v>39.979999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>65.930000000000007</v>
+      </c>
+      <c r="H62">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="I62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>73.34</v>
+      </c>
+      <c r="H63">
+        <v>72.95</v>
+      </c>
+      <c r="I63">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>70.5</v>
+      </c>
+      <c r="H64">
+        <v>65.84</v>
+      </c>
+      <c r="I64">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>74.13</v>
+      </c>
+      <c r="H65">
+        <v>71.584000000000003</v>
+      </c>
+      <c r="I65">
+        <v>0.71799999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushv\Developer\dm_arf\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155535DF-C2FD-4A8C-89ED-DD474C3167C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C968FF-209E-46B7-8417-AA4A4E1BD77C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="5760" windowWidth="28800" windowHeight="19605" xr2:uid="{0740747E-C6CD-40A7-8B82-952AACDE0BF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0740747E-C6CD-40A7-8B82-952AACDE0BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="42">
   <si>
     <t>GMSC</t>
   </si>
@@ -92,9 +92,6 @@
     <t>recall [0]</t>
   </si>
   <si>
-    <t>recall [2]</t>
-  </si>
-  <si>
     <t>Recall</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>~84.7</t>
   </si>
   <si>
-    <t>Precision</t>
-  </si>
-  <si>
     <t>~92.5</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
   </si>
   <si>
     <t>Balanced-accuracy</t>
-  </si>
-  <si>
-    <t>recall[5]</t>
   </si>
   <si>
     <t>balanced-accuracy</t>
@@ -227,10 +218,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -547,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E621C8-7248-4998-9499-5D9782F8CCF0}">
-  <dimension ref="B5:AM65"/>
+  <dimension ref="B5:AK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="AH39" sqref="AH39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,60 +562,60 @@
     <col min="26" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="S5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="Q6" s="1"/>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="K7" s="6" t="s">
+      <c r="D7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="5"/>
       <c r="Q7" s="1" t="s">
         <v>2</v>
       </c>
@@ -635,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
@@ -644,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -653,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA7" s="1">
         <v>0</v>
@@ -662,22 +653,16 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="s">
         <v>29</v>
       </c>
-      <c r="AG7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="Q8" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,20 +703,14 @@
         <v>21.92</v>
       </c>
       <c r="AD8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF8">
-        <v>65.45</v>
-      </c>
-      <c r="AG8">
-        <v>77.06</v>
-      </c>
-      <c r="AH8">
-        <f>SQRT(AF8*AG8)</f>
-        <v>71.018145568579868</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="AF8" t="e">
+        <f>SQRT(#REF!*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="Q9" s="1" t="s">
         <v>9</v>
       </c>
@@ -772,20 +751,14 @@
         <v>7.97</v>
       </c>
       <c r="AD9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF9">
-        <v>92.18</v>
-      </c>
-      <c r="AG9">
-        <v>92.36</v>
-      </c>
-      <c r="AH9">
-        <f>SQRT(AF9*AG9)</f>
-        <v>92.269956107066619</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="AF9" t="e">
+        <f>SQRT(#REF!*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -814,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>10</v>
@@ -859,20 +832,14 @@
         <v>327.58999999999997</v>
       </c>
       <c r="AD10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF10">
-        <v>60.1</v>
-      </c>
-      <c r="AG10">
-        <v>60.38</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" ref="AH10:AH14" si="0">SQRT(AF10*AG10)</f>
-        <v>60.239837317177411</v>
-      </c>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="AF10" t="e">
+        <f>SQRT(#REF!*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -950,14 +917,14 @@
         <v>206.83</v>
       </c>
       <c r="AD11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="AF11" t="e">
+        <f>SQRT(#REF!*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -971,11 +938,11 @@
         <v>178</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F65" si="1">SQRT(C12*D12)</f>
+        <f t="shared" ref="F12:F33" si="0">SQRT(C12*D12)</f>
         <v>43.112498187880504</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G65" si="2">(C12+D12)/2</f>
+        <f t="shared" ref="G12:G33" si="1">(C12+D12)/2</f>
         <v>58.94</v>
       </c>
       <c r="I12">
@@ -988,11 +955,11 @@
         <v>49</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:L57" si="3">SQRT(I12*J12)</f>
+        <f t="shared" ref="L12:L33" si="2">SQRT(I12*J12)</f>
         <v>35.450785604835332</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M57" si="4">(I12+J12)/2</f>
+        <f t="shared" ref="M12:M33" si="3">(I12+J12)/2</f>
         <v>55.964999999999996</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -1035,20 +1002,14 @@
         <v>153.05000000000001</v>
       </c>
       <c r="AD12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF12">
-        <v>89.44</v>
-      </c>
-      <c r="AG12">
-        <v>87.28</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="0"/>
-        <v>88.353399481853558</v>
-      </c>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="AF12" t="e">
+        <f>SQRT(#REF!*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -1062,11 +1023,11 @@
         <v>23.05</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>64.704864732104966</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>64.704864732104966</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
         <v>65.825500000000005</v>
       </c>
       <c r="I13">
@@ -1079,11 +1040,11 @@
         <v>70.040000000000006</v>
       </c>
       <c r="L13">
+        <f t="shared" si="2"/>
+        <v>62.997008659141898</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="3"/>
-        <v>62.997008659141898</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="4"/>
         <v>64.199999999999989</v>
       </c>
       <c r="Q13" s="1" t="s">
@@ -1126,20 +1087,14 @@
         <v>0.19</v>
       </c>
       <c r="AD13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF13">
-        <v>70.77</v>
-      </c>
-      <c r="AG13">
-        <v>70.77</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="0"/>
-        <v>70.77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="AF13" t="e">
+        <f>SQRT(#REF!*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -1153,11 +1108,11 @@
         <v>8.61</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>43.134238140947851</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>43.134238140947851</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
         <v>58.99</v>
       </c>
       <c r="I14">
@@ -1170,11 +1125,11 @@
         <v>16.86</v>
       </c>
       <c r="L14">
+        <f t="shared" si="2"/>
+        <v>32.132516241340333</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="3"/>
-        <v>32.132516241340333</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="4"/>
         <v>54.924999999999997</v>
       </c>
       <c r="Q14" s="1" t="s">
@@ -1217,20 +1172,14 @@
         <v>3.17</v>
       </c>
       <c r="AD14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF14">
-        <v>71.25</v>
-      </c>
-      <c r="AG14">
-        <v>74.209999999999994</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="0"/>
-        <v>72.71494000547618</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="AF14" t="e">
+        <f>SQRT(#REF!*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -1244,11 +1193,11 @@
         <v>2.77</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
+        <v>24.958715912482358</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v>24.958715912482358</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
         <v>52.96</v>
       </c>
       <c r="I15">
@@ -1261,15 +1210,15 @@
         <v>5.59</v>
       </c>
       <c r="L15">
+        <f t="shared" si="2"/>
+        <v>27.484955884992793</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="3"/>
-        <v>27.484955884992793</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="4"/>
         <v>53.62</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -1283,11 +1232,11 @@
         <v>6.19</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>35.18167136450456</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>35.18167136450456</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
         <v>55.76</v>
       </c>
       <c r="I16">
@@ -1300,15 +1249,15 @@
         <v>11.76</v>
       </c>
       <c r="L16">
+        <f t="shared" si="2"/>
+        <v>27.336788399517598</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="3"/>
-        <v>27.336788399517598</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="4"/>
         <v>53.57</v>
       </c>
     </row>
-    <row r="19" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1322,10 +1271,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1337,16 +1286,16 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
@@ -1360,11 +1309,11 @@
         <v>4.55</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
+        <v>92.326158806700064</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
-        <v>92.326158806700064</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
         <v>92.36</v>
       </c>
       <c r="I20">
@@ -1377,23 +1326,23 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="L20">
+        <f t="shared" si="2"/>
+        <v>89.094929148633369</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="3"/>
-        <v>89.094929148633369</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="4"/>
         <v>89.125</v>
       </c>
       <c r="R20" s="1"/>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="6"/>
+      <c r="U20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="5"/>
-      <c r="U20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -1407,11 +1356,11 @@
         <v>64.12</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>93.139411099705811</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
-        <v>93.139411099705811</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
         <v>93.18</v>
       </c>
       <c r="I21">
@@ -1424,11 +1373,11 @@
         <v>11.08</v>
       </c>
       <c r="L21">
+        <f t="shared" si="2"/>
+        <v>88.706388157787146</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="3"/>
-        <v>88.706388157787146</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="4"/>
         <v>88.77</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -1441,13 +1390,13 @@
         <v>1</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z21" t="s">
         <v>0</v>
@@ -1459,19 +1408,16 @@
         <v>10</v>
       </c>
       <c r="AF21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -1485,11 +1431,11 @@
         <v>2.17</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
+        <v>71.213363914366525</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
-        <v>71.213363914366525</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
         <v>71.284999999999997</v>
       </c>
       <c r="I22">
@@ -1502,11 +1448,11 @@
         <v>6.37</v>
       </c>
       <c r="L22">
+        <f t="shared" si="2"/>
+        <v>70.940545529337456</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="3"/>
-        <v>70.940545529337456</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="4"/>
         <v>70.944999999999993</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -1531,49 +1477,43 @@
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AD22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AF22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AH22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AJ22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -1587,11 +1527,11 @@
         <v>3.22</v>
       </c>
       <c r="F23">
+        <f t="shared" si="0"/>
+        <v>92.167382516810136</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="1"/>
-        <v>92.167382516810136</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
         <v>92.174999999999997</v>
       </c>
       <c r="I23">
@@ -1604,11 +1544,11 @@
         <v>7.08</v>
       </c>
       <c r="L23">
+        <f t="shared" si="2"/>
+        <v>89.134930302323113</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="3"/>
-        <v>89.134930302323113</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="4"/>
         <v>89.204999999999998</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -1624,15 +1564,15 @@
         <v>6.28</v>
       </c>
       <c r="V23">
-        <f t="shared" ref="V23:V61" si="5">SQRT(S23*T23)</f>
+        <f t="shared" ref="V23:V57" si="4">SQRT(S23*T23)</f>
         <v>92.249688346357019</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:W61" si="6">(S23+T23)/2</f>
+        <f t="shared" ref="W23:W57" si="5">(S23+T23)/2</f>
         <v>92.305000000000007</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z23">
         <v>76.114716054124514</v>
@@ -1653,31 +1593,25 @@
         <v>60.38</v>
       </c>
       <c r="AF23">
-        <v>96.747736407628693</v>
+        <v>86.485374486094472</v>
       </c>
       <c r="AG23">
-        <v>96.79</v>
+        <v>86.85</v>
       </c>
       <c r="AH23">
-        <v>86.485374486094472</v>
+        <v>70.216978003898731</v>
       </c>
       <c r="AI23">
-        <v>86.85</v>
+        <v>70.77</v>
       </c>
       <c r="AJ23">
-        <v>70.216978003898731</v>
+        <v>69.462735333414557</v>
       </c>
       <c r="AK23">
-        <v>70.77</v>
-      </c>
-      <c r="AL23">
-        <v>69.462735333414557</v>
-      </c>
-      <c r="AM23">
         <v>70.959999999999994</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>7</v>
       </c>
@@ -1691,11 +1625,11 @@
         <v>0.92</v>
       </c>
       <c r="F24">
+        <f t="shared" si="0"/>
+        <v>88.047296380979233</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="1"/>
-        <v>88.047296380979233</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
         <v>88.05</v>
       </c>
       <c r="I24">
@@ -1708,11 +1642,11 @@
         <v>1.91</v>
       </c>
       <c r="L24">
+        <f t="shared" si="2"/>
+        <v>81.518635906153392</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="3"/>
-        <v>81.518635906153392</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="4"/>
         <v>81.67</v>
       </c>
       <c r="R24" s="1" t="s">
@@ -1728,15 +1662,15 @@
         <v>281.56</v>
       </c>
       <c r="V24">
+        <f t="shared" si="4"/>
+        <v>59.308658727035798</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="5"/>
-        <v>59.308658727035798</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="6"/>
         <v>59.355000000000004</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z24">
         <v>74.167122095979963</v>
@@ -1757,31 +1691,25 @@
         <v>59.355000000000004</v>
       </c>
       <c r="AF24">
-        <v>95.464842743284294</v>
+        <v>87.35458316539551</v>
       </c>
       <c r="AG24">
-        <v>95.515000000000001</v>
+        <v>87.634999999999991</v>
       </c>
       <c r="AH24">
-        <v>87.35458316539551</v>
+        <v>70.844025859630548</v>
       </c>
       <c r="AI24">
-        <v>87.634999999999991</v>
+        <v>71.19</v>
       </c>
       <c r="AJ24">
-        <v>70.844025859630548</v>
+        <v>68.193900753659776</v>
       </c>
       <c r="AK24">
-        <v>71.19</v>
-      </c>
-      <c r="AL24">
-        <v>68.193900753659776</v>
-      </c>
-      <c r="AM24">
         <v>69.849999999999994</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>8</v>
       </c>
@@ -1795,11 +1723,11 @@
         <v>1.89</v>
       </c>
       <c r="F25">
+        <f t="shared" si="0"/>
+        <v>91.678534019692961</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="1"/>
-        <v>91.678534019692961</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
         <v>91.69</v>
       </c>
       <c r="I25">
@@ -1812,35 +1740,35 @@
         <v>3.72</v>
       </c>
       <c r="L25">
+        <f t="shared" si="2"/>
+        <v>87.171610057403427</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="3"/>
-        <v>87.171610057403427</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="4"/>
         <v>87.234999999999999</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S25">
-        <v>98.61</v>
+        <v>80.63</v>
       </c>
       <c r="T25" s="4">
-        <v>92.42</v>
+        <v>94.64</v>
       </c>
       <c r="U25">
-        <v>180.08</v>
+        <v>121.89</v>
       </c>
       <c r="V25">
-        <f t="shared" si="5"/>
-        <v>95.464842743284294</v>
+        <f>SQRT(S25*T25)</f>
+        <v>87.35458316539551</v>
       </c>
       <c r="W25">
-        <f t="shared" si="6"/>
-        <v>95.515000000000001</v>
+        <f>(S25+T25)/2</f>
+        <v>87.634999999999991</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z25">
         <v>77.721136121392362</v>
@@ -1861,53 +1789,47 @@
         <v>57.93</v>
       </c>
       <c r="AF25">
-        <v>95.513976987663952</v>
+        <v>87.35458316539551</v>
       </c>
       <c r="AG25">
-        <v>95.594999999999999</v>
+        <v>87.634999999999991</v>
       </c>
       <c r="AH25">
-        <v>87.35458316539551</v>
+        <v>68.825126225819588</v>
       </c>
       <c r="AI25">
-        <v>87.634999999999991</v>
+        <v>69.795000000000002</v>
       </c>
       <c r="AJ25">
-        <v>68.825126225819588</v>
+        <v>69.532872801287297</v>
       </c>
       <c r="AK25">
-        <v>69.795000000000002</v>
-      </c>
-      <c r="AL25">
-        <v>69.532872801287297</v>
-      </c>
-      <c r="AM25">
         <v>70.474999999999994</v>
       </c>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
       <c r="R26" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S26">
-        <v>80.63</v>
+        <v>78.2</v>
       </c>
       <c r="T26" s="4">
-        <v>94.64</v>
+        <v>64.180000000000007</v>
       </c>
       <c r="U26">
-        <v>121.89</v>
+        <v>0.12</v>
       </c>
       <c r="V26">
-        <f t="shared" si="5"/>
-        <v>87.35458316539551</v>
+        <f>SQRT(S26*T26)</f>
+        <v>70.844025859630548</v>
       </c>
       <c r="W26">
-        <f t="shared" si="6"/>
-        <v>87.634999999999991</v>
+        <f>(S26+T26)/2</f>
+        <v>71.19</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z26">
         <v>74.801069511070494</v>
@@ -1928,31 +1850,25 @@
         <v>58.57</v>
       </c>
       <c r="AF26">
-        <v>96.300098130791127</v>
+        <v>86.970825568117945</v>
       </c>
       <c r="AG26">
-        <v>96.330000000000013</v>
+        <v>87.27</v>
       </c>
       <c r="AH26">
-        <v>86.970825568117945</v>
+        <v>69.6681849914292</v>
       </c>
       <c r="AI26">
-        <v>87.27</v>
+        <v>70.435000000000002</v>
       </c>
       <c r="AJ26">
-        <v>69.6681849914292</v>
+        <v>69.486659870798221</v>
       </c>
       <c r="AK26">
-        <v>70.435000000000002</v>
-      </c>
-      <c r="AL26">
-        <v>69.486659870798221</v>
-      </c>
-      <c r="AM26">
         <v>70.72</v>
       </c>
     </row>
-    <row r="27" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1966,10 +1882,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1981,33 +1897,33 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S27">
-        <v>78.2</v>
+        <v>54.73</v>
       </c>
       <c r="T27" s="4">
-        <v>64.180000000000007</v>
+        <v>84.97</v>
       </c>
       <c r="U27">
-        <v>0.12</v>
+        <v>2.39</v>
       </c>
       <c r="V27">
-        <f t="shared" si="5"/>
-        <v>70.844025859630548</v>
+        <f>SQRT(S27*T27)</f>
+        <v>68.193900753659776</v>
       </c>
       <c r="W27">
-        <f t="shared" si="6"/>
-        <v>71.19</v>
+        <f>(S27+T27)/2</f>
+        <v>69.849999999999994</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z27">
         <v>73.582436763129834</v>
@@ -2028,31 +1944,25 @@
         <v>57.814999999999998</v>
       </c>
       <c r="AF27">
-        <v>96.562259708438887</v>
+        <v>87.092915900203963</v>
       </c>
       <c r="AG27">
-        <v>96.6</v>
+        <v>87.43</v>
       </c>
       <c r="AH27">
-        <v>87.092915900203963</v>
+        <v>69.658997983031597</v>
       </c>
       <c r="AI27">
-        <v>87.43</v>
+        <v>70.56</v>
       </c>
       <c r="AJ27">
-        <v>69.658997983031597</v>
+        <v>69.875684612030824</v>
       </c>
       <c r="AK27">
-        <v>70.56</v>
-      </c>
-      <c r="AL27">
-        <v>69.875684612030824</v>
-      </c>
-      <c r="AM27">
         <v>70.73</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -2066,11 +1976,11 @@
         <v>271</v>
       </c>
       <c r="F28">
+        <f t="shared" si="0"/>
+        <v>60.164228574793512</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="1"/>
-        <v>60.164228574793512</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
         <v>60.38</v>
       </c>
       <c r="I28">
@@ -2083,35 +1993,15 @@
         <v>396.76</v>
       </c>
       <c r="L28">
+        <f t="shared" si="2"/>
+        <v>61.704752653260023</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="3"/>
-        <v>61.704752653260023</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="4"/>
         <v>61.99</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S28">
-        <v>54.73</v>
-      </c>
-      <c r="T28" s="4">
-        <v>84.97</v>
-      </c>
-      <c r="U28">
-        <v>2.39</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="5"/>
-        <v>68.193900753659776</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="6"/>
-        <v>69.849999999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -2125,11 +2015,11 @@
         <v>2495</v>
       </c>
       <c r="F29">
+        <f t="shared" si="0"/>
+        <v>63.607286532283389</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="1"/>
-        <v>63.607286532283389</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
         <v>63.629999999999995</v>
       </c>
       <c r="I29">
@@ -2142,15 +2032,15 @@
         <v>544.46</v>
       </c>
       <c r="L29">
+        <f t="shared" si="2"/>
+        <v>60.836824374715682</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="3"/>
-        <v>60.836824374715682</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="4"/>
         <v>61.61</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -2164,11 +2054,11 @@
         <v>746</v>
       </c>
       <c r="F30">
+        <f t="shared" si="0"/>
+        <v>57.780264796901029</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="1"/>
-        <v>57.780264796901029</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
         <v>57.795000000000002</v>
       </c>
       <c r="I30">
@@ -2181,18 +2071,18 @@
         <v>985.42</v>
       </c>
       <c r="L30">
+        <f t="shared" si="2"/>
+        <v>61.350436021270461</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="3"/>
-        <v>61.350436021270461</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="4"/>
         <v>61.67</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>6</v>
       </c>
@@ -2206,11 +2096,11 @@
         <v>311</v>
       </c>
       <c r="F31">
+        <f t="shared" si="0"/>
+        <v>58.912660778477829</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="1"/>
-        <v>58.912660778477829</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
         <v>58.914999999999999</v>
       </c>
       <c r="I31">
@@ -2223,22 +2113,22 @@
         <v>502.04</v>
       </c>
       <c r="L31">
+        <f t="shared" si="2"/>
+        <v>60.339419950808278</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="3"/>
-        <v>60.339419950808278</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="4"/>
         <v>61.725000000000001</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="S31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="5"/>
-      <c r="U31" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -2252,11 +2142,11 @@
         <v>47.19</v>
       </c>
       <c r="F32">
+        <f t="shared" si="0"/>
+        <v>60.025494583551747</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="1"/>
-        <v>60.025494583551747</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
         <v>61.344999999999999</v>
       </c>
       <c r="I32">
@@ -2269,11 +2159,11 @@
         <v>67.95</v>
       </c>
       <c r="L32">
+        <f t="shared" si="2"/>
+        <v>58.767136224253775</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="3"/>
-        <v>58.767136224253775</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="4"/>
         <v>62.58</v>
       </c>
       <c r="R32" s="1" t="s">
@@ -2286,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
@@ -2303,11 +2193,11 @@
         <v>192.3</v>
       </c>
       <c r="F33">
+        <f t="shared" si="0"/>
+        <v>64.737004101209379</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="1"/>
-        <v>64.737004101209379</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
         <v>64.789999999999992</v>
       </c>
       <c r="I33">
@@ -2320,11 +2210,11 @@
         <v>295.77999999999997</v>
       </c>
       <c r="L33">
+        <f t="shared" si="2"/>
+        <v>63.956781501260679</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="3"/>
-        <v>63.956781501260679</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="4"/>
         <v>65.820000000000007</v>
       </c>
       <c r="R33" s="1" t="s">
@@ -2340,11 +2230,11 @@
         <v>18.09</v>
       </c>
       <c r="V33">
+        <f t="shared" si="4"/>
+        <v>77.721136121392362</v>
+      </c>
+      <c r="W33">
         <f t="shared" si="5"/>
-        <v>77.721136121392362</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="6"/>
         <v>78.015000000000001</v>
       </c>
     </row>
@@ -2362,32 +2252,32 @@
         <v>6.78</v>
       </c>
       <c r="V34">
+        <f t="shared" si="4"/>
+        <v>92.367702688764538</v>
+      </c>
+      <c r="W34">
         <f t="shared" si="5"/>
-        <v>92.367702688764538</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="6"/>
         <v>92.449999999999989</v>
       </c>
     </row>
     <row r="35" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
         <v>1</v>
       </c>
       <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -2399,10 +2289,10 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>10</v>
@@ -2417,11 +2307,11 @@
         <v>301.12</v>
       </c>
       <c r="V35">
+        <f t="shared" si="4"/>
+        <v>57.86132127768947</v>
+      </c>
+      <c r="W35">
         <f t="shared" si="5"/>
-        <v>57.86132127768947</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="6"/>
         <v>57.93</v>
       </c>
     </row>
@@ -2430,117 +2320,109 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>99.65</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="D36">
-        <v>93.93</v>
+        <v>94.8</v>
       </c>
       <c r="E36">
-        <v>176</v>
+        <v>108.23</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>96.747736407628693</v>
+        <f>SQRT(C36*D36)</f>
+        <v>86.485374486094472</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
-        <v>96.79</v>
+        <f>(C36+D36)/2</f>
+        <v>86.85</v>
       </c>
       <c r="I36">
-        <v>95.44</v>
+        <v>80.680000000000007</v>
       </c>
       <c r="J36">
-        <v>82.58</v>
+        <v>94.34</v>
       </c>
       <c r="K36">
-        <v>289.22000000000003</v>
+        <v>173.55</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
-        <v>88.77744758664781</v>
+        <f>SQRT(I36*J36)</f>
+        <v>87.243058176567843</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
-        <v>89.009999999999991</v>
+        <f>(I36+J36)/2</f>
+        <v>87.51</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S36">
-        <v>99.53</v>
+        <v>80.63</v>
       </c>
       <c r="T36">
-        <v>91.66</v>
+        <v>94.64</v>
       </c>
       <c r="U36">
-        <v>190.81</v>
+        <v>134.59</v>
       </c>
       <c r="V36">
-        <f t="shared" si="5"/>
-        <v>95.513976987663952</v>
+        <f>SQRT(S36*T36)</f>
+        <v>87.35458316539551</v>
       </c>
       <c r="W36">
-        <f t="shared" si="6"/>
-        <v>95.594999999999999</v>
+        <f>(S36+T36)/2</f>
+        <v>87.634999999999991</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37">
-        <v>99.3</v>
-      </c>
-      <c r="D37">
-        <v>93.18</v>
-      </c>
-      <c r="E37">
-        <v>1894</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>96.191340566601951</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>96.240000000000009</v>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
       </c>
       <c r="I37">
-        <v>96.72</v>
+        <v>80.28</v>
       </c>
       <c r="J37">
-        <v>78.12</v>
+        <v>94.63</v>
       </c>
       <c r="K37">
-        <v>448.18</v>
+        <v>246.47</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
-        <v>86.92391155487654</v>
+        <f>SQRT(I37*J37)</f>
+        <v>87.160176686374385</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
-        <v>87.42</v>
+        <f>(I37+J37)/2</f>
+        <v>87.454999999999998</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S37">
-        <v>80.63</v>
+        <v>81.39</v>
       </c>
       <c r="T37">
-        <v>94.64</v>
+        <v>58.2</v>
       </c>
       <c r="U37">
-        <v>134.59</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V37">
-        <f t="shared" si="5"/>
-        <v>87.35458316539551</v>
+        <f>SQRT(S37*T37)</f>
+        <v>68.825126225819588</v>
       </c>
       <c r="W37">
-        <f t="shared" si="6"/>
-        <v>87.634999999999991</v>
+        <f>(S37+T37)/2</f>
+        <v>69.795000000000002</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
@@ -2548,58 +2430,58 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>65.319999999999993</v>
+        <v>71.38</v>
       </c>
       <c r="D38">
-        <v>96.96</v>
+        <v>93.27</v>
       </c>
       <c r="E38">
-        <v>2281</v>
+        <v>588</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>79.582832319539861</v>
+        <f>SQRT(C38*D38)</f>
+        <v>81.594194646433024</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
-        <v>81.139999999999986</v>
+        <f>(C38+D38)/2</f>
+        <v>82.324999999999989</v>
       </c>
       <c r="I38">
-        <v>71.180000000000007</v>
+        <v>72.91</v>
       </c>
       <c r="J38">
-        <v>30.73</v>
+        <v>93.22</v>
       </c>
       <c r="K38">
-        <v>4000.93</v>
+        <v>1260.47</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
-        <v>46.769235614878291</v>
+        <f>SQRT(I38*J38)</f>
+        <v>82.441920162014668</v>
       </c>
       <c r="M38">
-        <f t="shared" si="4"/>
-        <v>50.955000000000005</v>
+        <f>(I38+J38)/2</f>
+        <v>83.064999999999998</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S38">
-        <v>81.39</v>
+        <v>58.99</v>
       </c>
       <c r="T38">
-        <v>58.2</v>
+        <v>81.96</v>
       </c>
       <c r="U38">
-        <v>0.14000000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="V38">
-        <f t="shared" si="5"/>
-        <v>68.825126225819588</v>
+        <f>SQRT(S38*T38)</f>
+        <v>69.532872801287297</v>
       </c>
       <c r="W38">
-        <f t="shared" si="6"/>
-        <v>69.795000000000002</v>
+        <f>(S38+T38)/2</f>
+        <v>70.474999999999994</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
@@ -2607,58 +2489,38 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>98.38</v>
+        <v>80.34</v>
       </c>
       <c r="D39">
-        <v>94.69</v>
+        <v>95.56</v>
       </c>
       <c r="E39">
-        <v>111</v>
+        <v>39.409999999999997</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>96.517367349094215</v>
+        <f>SQRT(C39*D39)</f>
+        <v>87.620148367826914</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
-        <v>96.534999999999997</v>
+        <f>(C39+D39)/2</f>
+        <v>87.95</v>
       </c>
       <c r="I39">
-        <v>94.17</v>
+        <v>80.61</v>
       </c>
       <c r="J39">
-        <v>75.94</v>
+        <v>94.93</v>
       </c>
       <c r="K39">
-        <v>197.19</v>
+        <v>74.84</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
-        <v>84.565180777906463</v>
+        <f>SQRT(I39*J39)</f>
+        <v>87.477467384464219</v>
       </c>
       <c r="M39">
-        <f t="shared" si="4"/>
-        <v>85.055000000000007</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S39">
-        <v>58.99</v>
-      </c>
-      <c r="T39">
-        <v>81.96</v>
-      </c>
-      <c r="U39">
-        <v>2.61</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="5"/>
-        <v>69.532872801287297</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="6"/>
-        <v>70.474999999999994</v>
+        <f>(I39+J39)/2</f>
+        <v>87.77000000000001</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
@@ -2666,38 +2528,38 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>94.81</v>
+        <v>80.63</v>
       </c>
       <c r="D40">
-        <v>82.57</v>
+        <v>95.56</v>
       </c>
       <c r="E40">
-        <v>42.5</v>
+        <v>13.25</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>88.478594586487418</v>
+        <f>SQRT(C40*D40)</f>
+        <v>87.77814534381551</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
-        <v>88.69</v>
+        <f>(C40+D40)/2</f>
+        <v>88.094999999999999</v>
       </c>
       <c r="I40">
-        <v>90.87</v>
+        <v>80.36</v>
       </c>
       <c r="J40">
-        <v>42.59</v>
+        <v>94.8</v>
       </c>
       <c r="K40">
-        <v>79.86</v>
+        <v>21.8</v>
       </c>
       <c r="L40">
-        <f t="shared" si="3"/>
-        <v>62.210556178192142</v>
+        <f>SQRT(I40*J40)</f>
+        <v>87.281888155561802</v>
       </c>
       <c r="M40">
-        <f t="shared" si="4"/>
-        <v>66.73</v>
+        <f>(I40+J40)/2</f>
+        <v>87.58</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
@@ -2705,55 +2567,59 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>96.88</v>
+        <v>80.05</v>
       </c>
       <c r="D41">
-        <v>93.938999999999993</v>
+        <v>95.25</v>
       </c>
       <c r="E41">
-        <v>102</v>
+        <v>26.7</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>95.398167277993338</v>
+        <f>SQRT(C41*D41)</f>
+        <v>87.319886051231194</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
-        <v>95.409499999999994</v>
+        <f>(C41+D41)/2</f>
+        <v>87.65</v>
       </c>
       <c r="I41">
-        <v>92.46</v>
+        <v>80.569999999999993</v>
       </c>
       <c r="J41">
-        <v>76.52</v>
+        <v>94.85</v>
       </c>
       <c r="K41">
-        <v>163.56</v>
+        <v>46.65</v>
       </c>
       <c r="L41">
-        <f t="shared" si="3"/>
-        <v>84.113252225793758</v>
+        <f>SQRT(I41*J41)</f>
+        <v>87.418902418184132</v>
       </c>
       <c r="M41">
-        <f t="shared" si="4"/>
-        <v>84.49</v>
+        <f>(I41+J41)/2</f>
+        <v>87.71</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="S42" s="5" t="s">
+      <c r="G42">
+        <f>(C42+D42)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T42" s="6"/>
+      <c r="U42" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="T42" s="5"/>
-      <c r="U42" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -2765,10 +2631,10 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
@@ -2780,10 +2646,10 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>2</v>
@@ -2795,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -2803,38 +2669,38 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>78.900000000000006</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="D44">
-        <v>94.8</v>
+        <v>61.94</v>
       </c>
       <c r="E44">
-        <v>108.23</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
-        <v>86.485374486094472</v>
+        <f>SQRT(C44*D44)</f>
+        <v>70.216978003898731</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
-        <v>86.85</v>
+        <f>(C44+D44)/2</f>
+        <v>70.77</v>
       </c>
       <c r="I44">
-        <v>80.680000000000007</v>
+        <v>81</v>
       </c>
       <c r="J44">
-        <v>94.34</v>
+        <v>66.040000000000006</v>
       </c>
       <c r="K44">
-        <v>173.55</v>
+        <v>0.34</v>
       </c>
       <c r="L44">
-        <f t="shared" si="3"/>
-        <v>87.243058176567843</v>
+        <f>SQRT(I44*J44)</f>
+        <v>73.138498754076167</v>
       </c>
       <c r="M44">
-        <f t="shared" si="4"/>
-        <v>87.51</v>
+        <f>(I44+J44)/2</f>
+        <v>73.52000000000001</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>0</v>
@@ -2849,11 +2715,11 @@
         <v>21.19</v>
       </c>
       <c r="V44">
+        <f t="shared" si="4"/>
+        <v>74.801069511070494</v>
+      </c>
+      <c r="W44">
         <f t="shared" si="5"/>
-        <v>74.801069511070494</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="6"/>
         <v>75.539999999999992</v>
       </c>
     </row>
@@ -2861,31 +2727,39 @@
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
-        <v>38</v>
+      <c r="C45">
+        <v>87.2</v>
+      </c>
+      <c r="D45">
+        <v>49.25</v>
+      </c>
+      <c r="E45">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F45">
+        <f>SQRT(C45*D45)</f>
+        <v>65.53319769399323</v>
+      </c>
+      <c r="G45">
+        <f>(C45+D45)/2</f>
+        <v>68.224999999999994</v>
       </c>
       <c r="I45">
-        <v>80.28</v>
+        <v>87.6</v>
       </c>
       <c r="J45">
-        <v>94.63</v>
+        <v>54.48</v>
       </c>
       <c r="K45">
-        <v>246.47</v>
+        <v>1.18</v>
       </c>
       <c r="L45">
-        <f t="shared" si="3"/>
-        <v>87.160176686374385</v>
+        <f>SQRT(I45*J45)</f>
+        <v>69.082906713600281</v>
       </c>
       <c r="M45">
-        <f t="shared" si="4"/>
-        <v>87.454999999999998</v>
+        <f>(I45+J45)/2</f>
+        <v>71.039999999999992</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>9</v>
@@ -2900,11 +2774,11 @@
         <v>7.59</v>
       </c>
       <c r="V45">
+        <f t="shared" si="4"/>
+        <v>92.457137636853105</v>
+      </c>
+      <c r="W45">
         <f t="shared" si="5"/>
-        <v>92.457137636853105</v>
-      </c>
-      <c r="W45">
-        <f t="shared" si="6"/>
         <v>92.52000000000001</v>
       </c>
     </row>
@@ -2913,38 +2787,38 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>71.38</v>
+        <v>87</v>
       </c>
       <c r="D46">
-        <v>93.27</v>
+        <v>36.56</v>
       </c>
       <c r="E46">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
-        <v>81.594194646433024</v>
+        <f>SQRT(C46*D46)</f>
+        <v>56.397872300291617</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
-        <v>82.324999999999989</v>
+        <f>(C46+D46)/2</f>
+        <v>61.78</v>
       </c>
       <c r="I46">
-        <v>72.91</v>
+        <v>87</v>
       </c>
       <c r="J46">
-        <v>93.22</v>
+        <v>36.57</v>
       </c>
       <c r="K46">
-        <v>1260.47</v>
+        <v>0.08</v>
       </c>
       <c r="L46">
-        <f t="shared" si="3"/>
-        <v>82.441920162014668</v>
+        <f>SQRT(I46*J46)</f>
+        <v>56.405584829873007</v>
       </c>
       <c r="M46">
-        <f t="shared" si="4"/>
-        <v>83.064999999999998</v>
+        <f>(I46+J46)/2</f>
+        <v>61.784999999999997</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>10</v>
@@ -2959,11 +2833,11 @@
         <v>318.12</v>
       </c>
       <c r="V46">
+        <f t="shared" si="4"/>
+        <v>58.519983766231512</v>
+      </c>
+      <c r="W46">
         <f t="shared" si="5"/>
-        <v>58.519983766231512</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="6"/>
         <v>58.57</v>
       </c>
     </row>
@@ -2972,58 +2846,58 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>80.34</v>
+        <v>83.6</v>
       </c>
       <c r="D47">
-        <v>95.56</v>
+        <v>53.73</v>
       </c>
       <c r="E47">
-        <v>39.409999999999997</v>
+        <v>0.03</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
-        <v>87.620148367826914</v>
+        <f>SQRT(C47*D47)</f>
+        <v>67.021101154785569</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
-        <v>87.95</v>
+        <f>(C47+D47)/2</f>
+        <v>68.664999999999992</v>
       </c>
       <c r="I47">
-        <v>80.61</v>
+        <v>83.6</v>
       </c>
       <c r="J47">
-        <v>94.93</v>
+        <v>53.73</v>
       </c>
       <c r="K47">
-        <v>74.84</v>
+        <v>0.2</v>
       </c>
       <c r="L47">
-        <f t="shared" si="3"/>
-        <v>87.477467384464219</v>
+        <f>SQRT(I47*J47)</f>
+        <v>67.021101154785569</v>
       </c>
       <c r="M47">
-        <f t="shared" si="4"/>
-        <v>87.77000000000001</v>
+        <f>(I47+J47)/2</f>
+        <v>68.664999999999992</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S47">
-        <v>98.73</v>
+        <v>80.05</v>
       </c>
       <c r="T47">
-        <v>93.93</v>
+        <v>94.49</v>
       </c>
       <c r="U47">
-        <v>194.2</v>
+        <v>140.56</v>
       </c>
       <c r="V47">
-        <f t="shared" si="5"/>
-        <v>96.300098130791127</v>
+        <f>SQRT(S47*T47)</f>
+        <v>86.970825568117945</v>
       </c>
       <c r="W47">
-        <f t="shared" si="6"/>
-        <v>96.330000000000013</v>
+        <f>(S47+T47)/2</f>
+        <v>87.27</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -3031,58 +2905,58 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>80.63</v>
+        <v>78.2</v>
       </c>
       <c r="D48">
-        <v>95.56</v>
+        <v>59.32</v>
       </c>
       <c r="E48">
-        <v>13.25</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
-        <v>87.77814534381551</v>
+        <f>SQRT(C48*D48)</f>
+        <v>68.108912779459345</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
-        <v>88.094999999999999</v>
+        <f>(C48+D48)/2</f>
+        <v>68.760000000000005</v>
       </c>
       <c r="I48">
-        <v>80.36</v>
+        <v>78.2</v>
       </c>
       <c r="J48">
-        <v>94.8</v>
+        <v>59.33</v>
       </c>
       <c r="K48">
-        <v>21.8</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L48">
-        <f t="shared" si="3"/>
-        <v>87.281888155561802</v>
+        <f>SQRT(I48*J48)</f>
+        <v>68.114653342727948</v>
       </c>
       <c r="M48">
-        <f t="shared" si="4"/>
-        <v>87.58</v>
+        <f>(I48+J48)/2</f>
+        <v>68.765000000000001</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S48">
-        <v>80.05</v>
+        <v>80.8</v>
       </c>
       <c r="T48">
-        <v>94.49</v>
+        <v>60.07</v>
       </c>
       <c r="U48">
-        <v>140.56</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V48">
-        <f t="shared" si="5"/>
-        <v>86.970825568117945</v>
+        <f>SQRT(S48*T48)</f>
+        <v>69.6681849914292</v>
       </c>
       <c r="W48">
-        <f t="shared" si="6"/>
-        <v>87.27</v>
+        <f>(S48+T48)/2</f>
+        <v>70.435000000000002</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
@@ -3090,89 +2964,63 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>80.05</v>
+        <v>94.8</v>
       </c>
       <c r="D49">
-        <v>95.25</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E49">
-        <v>26.7</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
-        <v>87.319886051231194</v>
+        <f>SQRT(C49*D49)</f>
+        <v>42.884962399423877</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
-        <v>87.65</v>
+        <f>(C49+D49)/2</f>
+        <v>57.099999999999994</v>
       </c>
       <c r="I49">
-        <v>80.569999999999993</v>
+        <v>94.8</v>
       </c>
       <c r="J49">
-        <v>94.85</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="K49">
-        <v>46.65</v>
+        <v>0.05</v>
       </c>
       <c r="L49">
-        <f t="shared" si="3"/>
-        <v>87.418902418184132</v>
+        <f>SQRT(I49*J49)</f>
+        <v>42.884962399423877</v>
       </c>
       <c r="M49">
-        <f t="shared" si="4"/>
-        <v>87.71</v>
+        <f>(I49+J49)/2</f>
+        <v>57.099999999999994</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S49">
-        <v>80.8</v>
+        <v>57.57</v>
       </c>
       <c r="T49">
-        <v>60.07</v>
+        <v>83.87</v>
       </c>
       <c r="U49">
-        <v>0.14000000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="V49">
-        <f t="shared" si="5"/>
-        <v>69.6681849914292</v>
+        <f>SQRT(S49*T49)</f>
+        <v>69.486659870798221</v>
       </c>
       <c r="W49">
-        <f t="shared" si="6"/>
-        <v>70.435000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S50">
-        <v>57.57</v>
-      </c>
-      <c r="T50">
-        <v>83.87</v>
-      </c>
-      <c r="U50">
-        <v>2.97</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="5"/>
-        <v>69.486659870798221</v>
-      </c>
-      <c r="W50">
-        <f t="shared" si="6"/>
+        <f>(S49+T49)/2</f>
         <v>70.72</v>
       </c>
     </row>
     <row r="51" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -3184,25 +3032,10 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>37</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
@@ -3210,41 +3043,24 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>79.599999999999994</v>
+        <v>56.46</v>
       </c>
       <c r="D52">
-        <v>61.94</v>
+        <v>85.46</v>
       </c>
       <c r="E52">
-        <v>7.8E-2</v>
+        <v>1.65</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>70.216978003898731</v>
+        <f>SQRT(C52*D52)</f>
+        <v>69.462735333414557</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
-        <v>70.77</v>
-      </c>
-      <c r="I52">
-        <v>81</v>
-      </c>
-      <c r="J52">
-        <v>66.040000000000006</v>
-      </c>
-      <c r="K52">
-        <v>0.34</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="3"/>
-        <v>73.138498754076167</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="4"/>
-        <v>73.52000000000001</v>
+        <f>(C52+D52)/2</f>
+        <v>70.959999999999994</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
@@ -3252,45 +3068,28 @@
         <v>4</v>
       </c>
       <c r="C53">
-        <v>87.2</v>
+        <v>81.540000000000006</v>
       </c>
       <c r="D53">
-        <v>49.25</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E53">
-        <v>1.0900000000000001</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>65.53319769399323</v>
+        <f>SQRT(C53*D53)</f>
+        <v>26.015034114911327</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
-        <v>68.224999999999994</v>
-      </c>
-      <c r="I53">
-        <v>87.6</v>
-      </c>
-      <c r="J53">
-        <v>54.48</v>
-      </c>
-      <c r="K53">
-        <v>1.18</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="3"/>
-        <v>69.082906713600281</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="4"/>
-        <v>71.039999999999992</v>
-      </c>
-      <c r="S53" s="5" t="s">
+        <f>(C53+D53)/2</f>
+        <v>44.92</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="T53" s="5"/>
-      <c r="U53" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -3298,38 +3097,21 @@
         <v>5</v>
       </c>
       <c r="C54">
-        <v>87</v>
+        <v>65.930000000000007</v>
       </c>
       <c r="D54">
-        <v>36.56</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
-        <v>56.397872300291617</v>
+        <f>SQRT(C54*D54)</f>
+        <v>67.237044105165722</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
-        <v>61.78</v>
-      </c>
-      <c r="I54">
-        <v>87</v>
-      </c>
-      <c r="J54">
-        <v>36.57</v>
-      </c>
-      <c r="K54">
-        <v>0.08</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="3"/>
-        <v>56.405584829873007</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="4"/>
-        <v>61.784999999999997</v>
+        <f>(C54+D54)/2</f>
+        <v>67.25</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>2</v>
@@ -3341,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -3349,38 +3131,21 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>83.6</v>
+        <v>73.34</v>
       </c>
       <c r="D55">
-        <v>53.73</v>
+        <v>72.95</v>
       </c>
       <c r="E55">
-        <v>0.03</v>
+        <v>1.29</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
-        <v>67.021101154785569</v>
+        <f>SQRT(C55*D55)</f>
+        <v>73.144740070629823</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
-        <v>68.664999999999992</v>
-      </c>
-      <c r="I55">
-        <v>83.6</v>
-      </c>
-      <c r="J55">
-        <v>53.73</v>
-      </c>
-      <c r="K55">
-        <v>0.2</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="3"/>
-        <v>67.021101154785569</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="4"/>
-        <v>68.664999999999992</v>
+        <f>(C55+D55)/2</f>
+        <v>73.14500000000001</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>0</v>
@@ -3395,11 +3160,11 @@
         <v>21.92</v>
       </c>
       <c r="V55">
+        <f t="shared" si="4"/>
+        <v>73.582436763129834</v>
+      </c>
+      <c r="W55">
         <f t="shared" si="5"/>
-        <v>73.582436763129834</v>
-      </c>
-      <c r="W55">
-        <f t="shared" si="6"/>
         <v>74.564999999999998</v>
       </c>
     </row>
@@ -3408,38 +3173,21 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>78.2</v>
+        <v>70.5</v>
       </c>
       <c r="D56">
-        <v>59.32</v>
+        <v>65.84</v>
       </c>
       <c r="E56">
-        <v>1.4999999999999999E-2</v>
+        <v>0.37</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
-        <v>68.108912779459345</v>
+        <f>SQRT(C56*D56)</f>
+        <v>68.130169528631001</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
-        <v>68.760000000000005</v>
-      </c>
-      <c r="I56">
-        <v>78.2</v>
-      </c>
-      <c r="J56">
-        <v>59.33</v>
-      </c>
-      <c r="K56">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="3"/>
-        <v>68.114653342727948</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="4"/>
-        <v>68.765000000000001</v>
+        <f>(C56+D56)/2</f>
+        <v>68.17</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>9</v>
@@ -3454,11 +3202,11 @@
         <v>7.97</v>
       </c>
       <c r="V56">
+        <f t="shared" si="4"/>
+        <v>93.032549680206017</v>
+      </c>
+      <c r="W56">
         <f t="shared" si="5"/>
-        <v>93.032549680206017</v>
-      </c>
-      <c r="W56">
-        <f t="shared" si="6"/>
         <v>93.07</v>
       </c>
     </row>
@@ -3467,38 +3215,21 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>94.8</v>
+        <v>74.13</v>
       </c>
       <c r="D57">
-        <v>19.399999999999999</v>
+        <v>71.584000000000003</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
-        <v>42.884962399423877</v>
+        <f>SQRT(C57*D57)</f>
+        <v>72.84587785180436</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
-        <v>57.099999999999994</v>
-      </c>
-      <c r="I57">
-        <v>94.8</v>
-      </c>
-      <c r="J57">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="K57">
-        <v>0.05</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="3"/>
-        <v>42.884962399423877</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="4"/>
-        <v>57.099999999999994</v>
+        <f>(C57+D57)/2</f>
+        <v>72.856999999999999</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>10</v>
@@ -3513,260 +3244,92 @@
         <v>327.58999999999997</v>
       </c>
       <c r="V57">
+        <f t="shared" si="4"/>
+        <v>57.714644588700359</v>
+      </c>
+      <c r="W57">
         <f t="shared" si="5"/>
-        <v>57.714644588700359</v>
-      </c>
-      <c r="W57">
-        <f t="shared" si="6"/>
         <v>57.814999999999998</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R58" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S58">
-        <v>99.3</v>
+        <v>79.760000000000005</v>
       </c>
       <c r="T58">
-        <v>93.9</v>
+        <v>95.1</v>
       </c>
       <c r="U58">
-        <v>206.83</v>
+        <v>153.05000000000001</v>
       </c>
       <c r="V58">
-        <f t="shared" si="5"/>
-        <v>96.562259708438887</v>
+        <f>SQRT(S58*T58)</f>
+        <v>87.092915900203963</v>
       </c>
       <c r="W58">
-        <f t="shared" si="6"/>
-        <v>96.6</v>
+        <f>(S58+T58)/2</f>
+        <v>87.43</v>
       </c>
     </row>
     <row r="59" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="R59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S59">
+        <v>81.8</v>
+      </c>
+      <c r="T59">
+        <v>59.32</v>
+      </c>
+      <c r="U59">
+        <v>0.19</v>
+      </c>
+      <c r="V59">
+        <f>SQRT(S59*T59)</f>
+        <v>69.658997983031597</v>
+      </c>
+      <c r="W59">
+        <f>(S59+T59)/2</f>
+        <v>70.56</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S59">
-        <v>79.760000000000005</v>
-      </c>
-      <c r="T59">
-        <v>95.1</v>
-      </c>
-      <c r="U59">
-        <v>153.05000000000001</v>
-      </c>
-      <c r="V59">
-        <f t="shared" si="5"/>
-        <v>87.092915900203963</v>
-      </c>
-      <c r="W59">
-        <f t="shared" si="6"/>
-        <v>87.43</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <v>56.46</v>
-      </c>
-      <c r="D60">
-        <v>85.46</v>
-      </c>
-      <c r="E60">
-        <v>1.65</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>69.462735333414557</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="2"/>
-        <v>70.959999999999994</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="S60">
-        <v>81.8</v>
+        <v>59.77</v>
       </c>
       <c r="T60">
-        <v>59.32</v>
+        <v>81.69</v>
       </c>
       <c r="U60">
-        <v>0.19</v>
+        <v>3.17</v>
       </c>
       <c r="V60">
-        <f t="shared" si="5"/>
-        <v>69.658997983031597</v>
+        <f>SQRT(S60*T60)</f>
+        <v>69.875684612030824</v>
       </c>
       <c r="W60">
-        <f t="shared" si="6"/>
-        <v>70.56</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61">
-        <v>81.540000000000006</v>
-      </c>
-      <c r="D61">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E61">
-        <v>39.979999999999997</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>26.015034114911327</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
-        <v>44.92</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S61">
-        <v>59.77</v>
-      </c>
-      <c r="T61">
-        <v>81.69</v>
-      </c>
-      <c r="U61">
-        <v>3.17</v>
-      </c>
-      <c r="V61">
-        <f t="shared" si="5"/>
-        <v>69.875684612030824</v>
-      </c>
-      <c r="W61">
-        <f t="shared" si="6"/>
+        <f>(S60+T60)/2</f>
         <v>70.73</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62">
-        <v>65.930000000000007</v>
-      </c>
-      <c r="D62">
-        <v>68.569999999999993</v>
-      </c>
-      <c r="E62">
-        <v>0.5</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
-        <v>67.237044105165722</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="2"/>
-        <v>67.25</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63">
-        <v>73.34</v>
-      </c>
-      <c r="D63">
-        <v>72.95</v>
-      </c>
-      <c r="E63">
-        <v>1.29</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
-        <v>73.144740070629823</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="2"/>
-        <v>73.14500000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64">
-        <v>70.5</v>
-      </c>
-      <c r="D64">
-        <v>65.84</v>
-      </c>
-      <c r="E64">
-        <v>0.37</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
-        <v>68.130169528631001</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
-        <v>68.17</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65">
-        <v>74.13</v>
-      </c>
-      <c r="D65">
-        <v>71.584000000000003</v>
-      </c>
-      <c r="E65">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>72.84587785180436</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>72.856999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S42:T42"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S42:T42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
